--- a/downloads/structures_page/Others.xlsx
+++ b/downloads/structures_page/Others.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bf/Documents/1doctor/riboswitch_database/other_page_excel/Structure_page/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bf/Documents/blogs_all/Ribocentre-switch.github.io/downloads/structures_page/未命名文件夹/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD2A062-7831-204F-B3D8-831BC803429F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351AAAC-1CF8-D246-AAC0-812A912E35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22760" yWindow="9180" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33080" yWindow="6960" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Others" sheetId="10" r:id="rId1"/>
@@ -825,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
